--- a/sintaxa.xlsx
+++ b/sintaxa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oana\Desktop\aplicatie incercare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oana\Desktop\APPfin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="6270" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sumar" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="706">
   <si>
     <t>nr.crt.</t>
   </si>
@@ -1364,12 +1364,6 @@
     <t>Louis Hjelmslev</t>
   </si>
   <si>
-    <t>Bacon</t>
-  </si>
-  <si>
-    <t>Pierce</t>
-  </si>
-  <si>
     <t>Herman Paul</t>
   </si>
   <si>
@@ -2192,6 +2186,12 @@
   </si>
   <si>
     <t>Mánczak, Witold: Wolfgang Pöckl et Franz Rainer, Einführung in die romanische Sprachwissenschaft, 2 éd.: Max Niemeyer Verlag, Tübingen, 1995, 126 p. + disquette, RRL, 41, nr. 1-2, 1996, 81-82. </t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Charles Pierce</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2390,9 +2390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4022,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -4187,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -4239,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -4352,7 +4349,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -4452,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -4526,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>10</v>
@@ -4642,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -4690,10 +4687,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -4781,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -4853,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>12</v>
@@ -4888,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -4992,7 +4989,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -5017,10 +5014,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -5028,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -5180,10 +5177,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -5343,10 +5340,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -5394,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -5410,7 +5407,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -5466,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -5506,10 +5503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -5613,7 +5610,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -5657,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5700,104 +5697,122 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1561</v>
+      <c r="A2" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1857</v>
       </c>
       <c r="C2">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1913</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1916</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B3" s="22">
-        <v>1820</v>
+        <v>1827</v>
       </c>
       <c r="C3">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1845</v>
+      </c>
+      <c r="C4">
+        <v>1929</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1840</v>
+      </c>
+      <c r="C5">
+        <v>1893</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1827</v>
-      </c>
-      <c r="C4">
-        <v>1894</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1839</v>
-      </c>
-      <c r="C5">
-        <v>1914</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B6" s="22">
-        <v>1840</v>
+        <v>1865</v>
       </c>
       <c r="C6">
-        <v>1893</v>
+        <v>1947</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B7" s="22">
-        <v>1845</v>
+        <v>1870</v>
       </c>
       <c r="C7">
-        <v>1929</v>
+        <v>1946</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="18" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B8" s="22">
-        <v>1849</v>
+        <v>1879</v>
       </c>
       <c r="C8">
-        <v>1919</v>
+        <v>1963</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>419</v>
@@ -5805,195 +5820,177 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="21">
-        <v>1857</v>
+        <v>423</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1908</v>
       </c>
       <c r="C9">
-        <v>1913</v>
+        <v>1999</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1916</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="H9" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
-        <v>441</v>
+      <c r="A10" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="B10" s="22">
-        <v>1860</v>
+        <v>1896</v>
       </c>
       <c r="C10">
-        <v>1943</v>
+        <v>1982</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B11" s="22">
-        <v>1865</v>
+        <v>1820</v>
       </c>
       <c r="C11">
-        <v>1947</v>
+        <v>1885</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19" t="s">
-        <v>436</v>
+      <c r="A12" s="18" t="s">
+        <v>428</v>
       </c>
       <c r="B12" s="22">
-        <v>1866</v>
+        <v>1849</v>
       </c>
       <c r="C12">
-        <v>1936</v>
+        <v>1919</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B13" s="22">
-        <v>1866</v>
+        <v>1889</v>
       </c>
       <c r="C13">
-        <v>1952</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>438</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
-        <v>432</v>
+        <v>704</v>
       </c>
       <c r="B14" s="22">
-        <v>1867</v>
+        <v>1561</v>
       </c>
       <c r="C14">
-        <v>1921</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18" t="s">
-        <v>421</v>
+      <c r="A15" s="19" t="s">
+        <v>705</v>
       </c>
       <c r="B15" s="22">
-        <v>1870</v>
+        <v>1839</v>
       </c>
       <c r="C15">
-        <v>1946</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>406</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B16" s="22">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="C16">
-        <v>1949</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>419</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B17" s="22">
-        <v>1875</v>
+        <v>1920</v>
       </c>
       <c r="C17">
-        <v>1960</v>
+        <v>2001</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="18" t="s">
-        <v>422</v>
+      <c r="A18" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="B18" s="22">
-        <v>1879</v>
+        <v>1902</v>
       </c>
       <c r="C18">
-        <v>1963</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>419</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B19" s="22">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="C19">
-        <v>1974</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B20" s="22">
-        <v>1888</v>
+        <v>1866</v>
       </c>
       <c r="C20">
-        <v>1971</v>
+        <v>1952</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B21" s="22">
-        <v>1889</v>
+        <v>1872</v>
       </c>
       <c r="C21">
-        <v>1965</v>
+        <v>1949</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="18" t="s">
-        <v>425</v>
+      <c r="A22" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="B22" s="22">
-        <v>1896</v>
+        <v>1917</v>
       </c>
       <c r="C22">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>426</v>
@@ -6001,38 +5998,41 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="19" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B23" s="22">
-        <v>1899</v>
+        <v>1860</v>
       </c>
       <c r="C23">
-        <v>1980</v>
+        <v>1943</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="19" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B24" s="22">
-        <v>1902</v>
+        <v>1888</v>
       </c>
       <c r="C24">
-        <v>1976</v>
+        <v>1971</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="18" t="s">
-        <v>423</v>
+      <c r="A25" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="B25" s="22">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="C25">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>424</v>
@@ -6040,232 +6040,85 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="19" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B26" s="22">
-        <v>1917</v>
+        <v>1875</v>
       </c>
       <c r="C26">
-        <v>1992</v>
+        <v>1960</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B27" s="22">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="C27">
-        <v>2001</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>434</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="29">
-        <v>1572</v>
-      </c>
-      <c r="C28" s="29">
-        <v>1633</v>
-      </c>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="B29" s="29">
-        <v>1730</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1795</v>
-      </c>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="B30" s="29">
-        <v>1745</v>
-      </c>
-      <c r="C30" s="29">
-        <v>1806</v>
-      </c>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B31" s="29">
-        <v>1754</v>
-      </c>
-      <c r="C31" s="29">
-        <v>1816</v>
-      </c>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="B32" s="29">
-        <v>1749</v>
-      </c>
-      <c r="C32" s="29">
-        <v>1815</v>
-      </c>
+      <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="B33" s="29">
-        <v>1768</v>
-      </c>
-      <c r="C33" s="29">
-        <v>1824</v>
-      </c>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="B34" s="29">
-        <v>1930</v>
-      </c>
-      <c r="C34" s="29">
-        <v>2009</v>
-      </c>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="B35" s="29">
-        <v>1897</v>
-      </c>
-      <c r="C35" s="29">
-        <v>1964</v>
-      </c>
+      <c r="A35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" s="29">
-        <v>1931</v>
-      </c>
-      <c r="C36" s="29">
-        <v>2008</v>
-      </c>
+      <c r="A36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="B37" s="29">
-        <v>1920</v>
-      </c>
-      <c r="C37" s="29">
-        <v>1997</v>
-      </c>
+      <c r="A37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="B38" s="29">
-        <v>1770</v>
-      </c>
-      <c r="C38" s="29">
-        <v>1850</v>
-      </c>
+      <c r="A38" s="18"/>
       <c r="D38" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="B39" s="29">
-        <v>1800</v>
-      </c>
-      <c r="C39" s="29">
-        <v>1863</v>
-      </c>
+      <c r="A39" s="19"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="B40" s="29">
-        <v>1768</v>
-      </c>
-      <c r="C40" s="29">
-        <v>1848</v>
-      </c>
+      <c r="A40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="B41" s="29">
-        <v>1859</v>
-      </c>
-      <c r="C41" s="29">
-        <v>1934</v>
-      </c>
+      <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="B42" s="29">
-        <v>1850</v>
-      </c>
-      <c r="C42" s="29">
-        <v>1936</v>
-      </c>
+      <c r="A42" s="19"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="B43" s="29">
-        <v>1845</v>
-      </c>
-      <c r="C43" s="29">
-        <v>1883</v>
-      </c>
+      <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="B44" s="29">
-        <v>1859</v>
-      </c>
-      <c r="C44" s="29">
-        <v>1949</v>
-      </c>
+      <c r="A44" s="19"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="B45" s="29">
-        <v>1900</v>
-      </c>
-      <c r="C45" s="29">
-        <v>1979</v>
-      </c>
+      <c r="A45" s="19"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="19"/>
@@ -6327,7 +6180,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="20"/>
       <c r="E63" s="27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6818,9 +6671,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D210"/>
-  <sortState ref="A2:H27">
-    <sortCondition ref="B1"/>
-  </sortState>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1"/>
   </hyperlinks>
@@ -6845,10 +6695,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
@@ -6880,7 +6730,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -6904,7 +6754,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -6968,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7008,10 +6858,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -7131,7 +6981,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7171,10 +7021,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -7190,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7278,7 +7128,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -7286,7 +7136,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7334,10 +7184,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7465,7 +7315,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -7497,10 +7347,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7628,7 +7478,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -7660,7 +7510,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>22</v>
@@ -7711,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7834,12 +7684,12 @@
         <v>399</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2" s="21">
         <v>1572</v>
@@ -7850,7 +7700,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B3" s="22">
         <v>1730</v>
@@ -7861,15 +7711,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C5">
         <v>1806</v>
@@ -7877,10 +7727,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C6">
         <v>1816</v>
@@ -7888,15 +7738,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C8">
         <v>1815</v>
@@ -7904,10 +7754,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C9">
         <v>1824</v>
@@ -7915,12 +7765,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B11" s="22">
         <v>1966</v>
@@ -7928,7 +7778,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B12" s="22">
         <v>1942</v>
@@ -7936,7 +7786,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="22">
         <v>1952</v>
@@ -7944,7 +7794,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B14" s="22">
         <v>1938</v>
@@ -7952,7 +7802,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -7960,7 +7810,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B16" s="22">
         <v>1929</v>
@@ -7968,12 +7818,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" s="22">
         <v>1933</v>
@@ -7981,7 +7831,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B19" s="22">
         <v>1951</v>
@@ -7989,7 +7839,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B20" s="22">
         <v>1935</v>
@@ -7997,7 +7847,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B21" s="22">
         <v>1930</v>
@@ -8008,17 +7858,17 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" s="22">
         <v>1943</v>
@@ -8026,12 +7876,12 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B26" s="22">
         <v>1934</v>
@@ -8039,7 +7889,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B27" s="22">
         <v>1958</v>
@@ -8047,7 +7897,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C28">
         <v>2016</v>
@@ -8055,17 +7905,17 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B31" s="22">
         <v>1983</v>
@@ -8073,7 +7923,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B32" s="22">
         <v>1975</v>
@@ -8081,12 +7931,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B34" s="22">
         <v>1932</v>
@@ -8097,7 +7947,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B35" s="22">
         <v>1888</v>
@@ -8108,12 +7958,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B37" s="22">
         <v>1900</v>
@@ -8124,12 +7974,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B39" s="22">
         <v>1913</v>
@@ -8140,12 +7990,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B41" s="22">
         <v>1910</v>
@@ -8156,7 +8006,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B42" s="22">
         <v>1749</v>
@@ -8167,7 +8017,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B43" s="22">
         <v>1950</v>
@@ -8175,12 +8025,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B45" s="22">
         <v>1969</v>
@@ -8191,7 +8041,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B46" s="22">
         <v>1764</v>
@@ -8202,7 +8052,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B47" s="22">
         <v>1760</v>
@@ -8213,12 +8063,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B49" s="22">
         <v>1805</v>
@@ -8229,12 +8079,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B51" s="22">
         <v>1742</v>
@@ -8245,23 +8095,23 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B54" s="22">
         <v>1939</v>
@@ -8272,18 +8122,18 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B56" s="22">
         <v>1962</v>
       </c>
       <c r="C56" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -8291,7 +8141,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B57" s="22">
         <v>1897</v>
@@ -8302,7 +8152,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B58" s="22">
         <v>1931</v>
@@ -8313,7 +8163,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B59" s="22">
         <v>1920</v>
@@ -8324,12 +8174,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B61" s="22">
         <v>1929</v>
@@ -8340,12 +8190,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B63" s="22">
         <v>1908</v>
@@ -8356,7 +8206,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B64" s="22">
         <v>1956</v>
@@ -8364,7 +8214,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B65" s="22">
         <v>1977</v>
@@ -8375,7 +8225,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B66" s="22">
         <v>1825</v>
@@ -8386,12 +8236,12 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B68" s="22">
         <v>1809</v>
@@ -8402,25 +8252,25 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B72" s="22">
         <v>1917</v>
@@ -8431,7 +8281,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B73" s="22">
         <v>1939</v>
@@ -8439,12 +8289,12 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -8452,7 +8302,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B76" s="22">
         <v>1884</v>
@@ -8463,7 +8313,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B77" s="22">
         <v>1895</v>
@@ -8474,17 +8324,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B80" s="22">
         <v>1941</v>
@@ -8492,17 +8342,17 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B83" s="22">
         <v>1886</v>
@@ -8513,7 +8363,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B84" s="22">
         <v>1912</v>
@@ -8521,7 +8371,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B85" s="22">
         <v>1901</v>
@@ -8532,12 +8382,12 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B87" s="22">
         <v>1913</v>
@@ -8548,12 +8398,12 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B89" s="22">
         <v>1912</v>
@@ -8564,12 +8414,12 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B91" s="22">
         <v>1978</v>
@@ -8580,7 +8430,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B92" s="22">
         <v>1770</v>
@@ -8591,7 +8441,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B93" s="22">
         <v>1800</v>
@@ -8602,7 +8452,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B94" s="22">
         <v>1768</v>
@@ -8613,12 +8463,12 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B96" s="22">
         <v>1810</v>
@@ -8629,12 +8479,12 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" s="22">
         <v>1804</v>
@@ -8645,7 +8495,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B99" s="22">
         <v>1807</v>
@@ -8656,12 +8506,12 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B101" s="22">
         <v>1932</v>
@@ -8672,7 +8522,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -8680,17 +8530,17 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B105" s="22">
         <v>1818</v>
@@ -8701,12 +8551,12 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B107" s="22">
         <v>1825</v>
@@ -8717,7 +8567,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B108" s="22">
         <v>1821</v>
@@ -8728,7 +8578,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B109" s="22">
         <v>1812</v>
@@ -8739,32 +8589,32 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -8772,7 +8622,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B116" s="22">
         <v>1859</v>
@@ -8783,7 +8633,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B117" s="22">
         <v>1850</v>
@@ -8794,7 +8644,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B118" s="22">
         <v>1845</v>
@@ -8805,7 +8655,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B119" s="22">
         <v>1859</v>
@@ -8816,7 +8666,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B120" s="22">
         <v>1900</v>
@@ -8827,12 +8677,12 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B122" s="22">
         <v>1860</v>
@@ -8843,12 +8693,12 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B124" s="22">
         <v>1951</v>
@@ -8856,17 +8706,17 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -8874,7 +8724,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B128" s="22">
         <v>1848</v>
@@ -8885,7 +8735,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B129" s="22">
         <v>1863</v>
@@ -8896,7 +8746,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B130" s="22">
         <v>1861</v>
@@ -8907,7 +8757,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B131" s="22">
         <v>1912</v>
@@ -8918,12 +8768,12 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B133" s="22">
         <v>1903</v>
@@ -8934,12 +8784,12 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B135" s="22">
         <v>1928</v>
@@ -8947,12 +8797,12 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B137" s="22">
         <v>1968</v>
@@ -8963,17 +8813,17 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B140" s="22">
         <v>1897</v>
@@ -8984,12 +8834,12 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B142" s="22">
         <v>1902</v>
@@ -9000,17 +8850,17 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B145" s="22">
         <v>1877</v>
@@ -9021,17 +8871,17 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D148">
         <v>13</v>
@@ -9039,12 +8889,12 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B150" s="22">
         <v>1925</v>
@@ -9055,7 +8905,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B151" s="22">
         <v>1961</v>
@@ -9063,7 +8913,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D152">
         <v>14</v>
@@ -9071,27 +8921,27 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B157" s="22">
         <v>1961</v>
@@ -9099,22 +8949,22 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D161">
         <v>15</v>
@@ -9122,17 +8972,17 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B164" s="22">
         <v>1921</v>
@@ -9143,12 +8993,12 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B166" s="22">
         <v>1902</v>
@@ -9159,22 +9009,22 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D170">
         <v>16</v>
@@ -9182,37 +9032,37 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D177">
         <v>17</v>
@@ -9220,27 +9070,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B182" s="22">
         <v>1947</v>
@@ -9248,12 +9098,12 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D184">
         <v>18</v>
@@ -9261,12 +9111,12 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B186" s="22">
         <v>1947</v>
@@ -9274,7 +9124,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B187" s="22">
         <v>1937</v>
@@ -9285,12 +9135,12 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B189" s="22">
         <v>1937</v>
@@ -9298,7 +9148,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B190" s="22">
         <v>1951</v>
@@ -9309,42 +9159,42 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B198" s="22">
         <v>1980</v>
@@ -9355,22 +9205,22 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B202" s="22">
         <v>1943</v>
@@ -9378,12 +9228,12 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B204" s="22">
         <v>1939</v>
@@ -9391,17 +9241,17 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B207" s="22">
         <v>1970</v>
@@ -9412,12 +9262,12 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D209">
         <v>21</v>
@@ -9425,12 +9275,12 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B211" s="22">
         <v>1924</v>
@@ -9441,17 +9291,17 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B214" s="22">
         <v>1931</v>
@@ -9462,7 +9312,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B215" s="22">
         <v>1960</v>
@@ -9470,12 +9320,12 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B217" s="22">
         <v>1981</v>
@@ -9510,7 +9360,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -9618,7 +9468,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -9675,7 +9525,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -9767,7 +9617,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -9843,7 +9693,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -9951,7 +9801,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -10008,7 +9858,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -10148,7 +9998,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -10173,7 +10023,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -10233,7 +10083,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -10338,7 +10188,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -10406,7 +10256,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
